--- a/Classification Results/Augmented Data/Full VPOP Classification/By Diagnosis/Control 6 (12, 18, 34, 42, 21)/MDD 0 (41, 8, 15, 16, 33)/ANN_128nodes_Uniform0.05Virtual_Control(12, 18, 34, 42, 21)_MDD(41, 8, 15, 16, 33)_100perPatient_batchsize10_20maxITER_StandardizeAll_smoothing0_dropout0.5.xlsx
+++ b/Classification Results/Augmented Data/Full VPOP Classification/By Diagnosis/Control 6 (12, 18, 34, 42, 21)/MDD 0 (41, 8, 15, 16, 33)/ANN_128nodes_Uniform0.05Virtual_Control(12, 18, 34, 42, 21)_MDD(41, 8, 15, 16, 33)_100perPatient_batchsize10_20maxITER_StandardizeAll_smoothing0_dropout0.5.xlsx
@@ -456,10 +456,10 @@
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.9999875648264609</v>
+        <v>0.9999998921743428</v>
       </c>
       <c r="E2">
-        <v>0.9999875648264609</v>
+        <v>0.9999998921743428</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -470,10 +470,10 @@
         <v>1</v>
       </c>
       <c r="D3">
-        <v>0.001782465058467629</v>
+        <v>0.0001127654243477936</v>
       </c>
       <c r="E3">
-        <v>0.001782465058467629</v>
+        <v>0.0001127654243477936</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -484,10 +484,10 @@
         <v>1</v>
       </c>
       <c r="D4">
-        <v>8.339127630980871E-10</v>
+        <v>3.703921923180752E-10</v>
       </c>
       <c r="E4">
-        <v>8.339127630980871E-10</v>
+        <v>3.703921923180752E-10</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -498,10 +498,10 @@
         <v>1</v>
       </c>
       <c r="D5">
-        <v>3.603001125243566E-24</v>
+        <v>9.737364658495409E-28</v>
       </c>
       <c r="E5">
-        <v>3.603001125243566E-24</v>
+        <v>9.737364658495409E-28</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -526,10 +526,10 @@
         <v>0</v>
       </c>
       <c r="D7">
-        <v>1.796567145035048E-07</v>
+        <v>0.0003777364295728222</v>
       </c>
       <c r="E7">
-        <v>0.9999998203432855</v>
+        <v>0.9996222635704272</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -554,10 +554,10 @@
         <v>1</v>
       </c>
       <c r="D9">
-        <v>0.9656321753147724</v>
+        <v>0.9999605899149142</v>
       </c>
       <c r="E9">
-        <v>0.03436782468522759</v>
+        <v>3.941008508578925E-05</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -588,7 +588,7 @@
         <v>0</v>
       </c>
       <c r="F11">
-        <v>11.26967334747314</v>
+        <v>9.184396743774414</v>
       </c>
       <c r="G11">
         <v>0.7</v>
